--- a/Report_14_06_2018_Updated2.xlsx
+++ b/Report_14_06_2018_Updated2.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2271936\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Albuquerque\Desktop\licence_uk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F04E6-0DD0-4DB2-8A6E-7CB8B6A7E977}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9738" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report_14_06_2018_Updated2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="316">
   <si>
     <t>Report</t>
   </si>
@@ -808,12 +810,195 @@
   <si>
     <t>for the h3 we need a decent plot. Last time, we are running out of time, this time we can’t afford NOT to include the interaction plot.</t>
   </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>Model 4</t>
+  </si>
+  <si>
+    <t>Model 5</t>
+  </si>
+  <si>
+    <t>dummy_period2</t>
+  </si>
+  <si>
+    <t>dummy_period3</t>
+  </si>
+  <si>
+    <t>anticompetition:design.strategy</t>
+  </si>
+  <si>
+    <t>anti_social_rivarly:design.strategy</t>
+  </si>
+  <si>
+    <t>collective_rivalry:design.strategy</t>
+  </si>
+  <si>
+    <t>copyleft:design.strategy</t>
+  </si>
+  <si>
+    <t>Log(theta)</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>0.46*** (0.07)</t>
+  </si>
+  <si>
+    <t>0.19*** (0.04)</t>
+  </si>
+  <si>
+    <t>-0.85*** (0.14)</t>
+  </si>
+  <si>
+    <t>0.03 (0.04)</t>
+  </si>
+  <si>
+    <t>0.52*** (0.1)</t>
+  </si>
+  <si>
+    <t>0.88*** (0.08)</t>
+  </si>
+  <si>
+    <t>0.47*** (0.07)</t>
+  </si>
+  <si>
+    <t>0.24*** (0.04)</t>
+  </si>
+  <si>
+    <t>0.35. (0.18)</t>
+  </si>
+  <si>
+    <t>0.42*** (0.05)</t>
+  </si>
+  <si>
+    <t>-0.27** (0.08)</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>-2.04***(0.08)</t>
+  </si>
+  <si>
+    <t>-0.12***(0.01)</t>
+  </si>
+  <si>
+    <t>Regression statistics</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
+  </si>
+  <si>
+    <t>-0.13(0.09)</t>
+  </si>
+  <si>
+    <t>-1.55***(0.02)</t>
+  </si>
+  <si>
+    <t>0.29*** (0.04)</t>
+  </si>
+  <si>
+    <t>0.37*** (0.02)</t>
+  </si>
+  <si>
+    <t>-0.63*** (0.08)</t>
+  </si>
+  <si>
+    <t>0.28*** (0.02)</t>
+  </si>
+  <si>
+    <t>1.22*** (0.06)</t>
+  </si>
+  <si>
+    <t>0.84*** (0.08)</t>
+  </si>
+  <si>
+    <t>0.42*** (0.07)</t>
+  </si>
+  <si>
+    <t>-2.05*** (0.08)</t>
+  </si>
+  <si>
+    <t>-0.11*** (0.01)</t>
+  </si>
+  <si>
+    <t>-0.42*** (0.07)</t>
+  </si>
+  <si>
+    <t>-1.56*** (0.02)</t>
+  </si>
+  <si>
+    <t>2.21*** (0.05)</t>
+  </si>
+  <si>
+    <t>0.75*** (0.08)</t>
+  </si>
+  <si>
+    <t>0.62*** (0.08)</t>
+  </si>
+  <si>
+    <t>-1.96*** (0.07)</t>
+  </si>
+  <si>
+    <t>-0.13*** (0.01)</t>
+  </si>
+  <si>
+    <t>0.08 (0.07)</t>
+  </si>
+  <si>
+    <t>-1.66*** (0.02)</t>
+  </si>
+  <si>
+    <t>1.08*** (0.08)</t>
+  </si>
+  <si>
+    <t>1.31*** (0.08)</t>
+  </si>
+  <si>
+    <t>1.02*** (0.07)</t>
+  </si>
+  <si>
+    <t>-1.89*** (0.07)</t>
+  </si>
+  <si>
+    <t>-1.84*** (0.02)</t>
+  </si>
+  <si>
+    <t>-1.9*** (0.07)</t>
+  </si>
+  <si>
+    <t>-0.14*** (0.01)</t>
+  </si>
+  <si>
+    <t>-1.8*** (0.02)</t>
+  </si>
+  <si>
+    <t>2.14*** (0.03)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,7 +1352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1282,6 +1467,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1327,7 +1532,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1361,54 +1566,86 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1685,43 +1922,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L486"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A470" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83984375" customWidth="1"/>
+    <col min="5" max="5" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="33.299999999999997">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="29.7">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -1754,7 +1993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +2028,7 @@
         <v>24505</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1824,7 +2063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +2098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1894,7 +2133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1929,7 +2168,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1964,7 +2203,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1999,7 +2238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -2034,7 +2273,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -2069,28 +2308,28 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>3</v>
@@ -2126,7 +2365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -2164,7 +2403,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
@@ -2202,7 +2441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
@@ -2240,7 +2479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +2517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
@@ -2316,7 +2555,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="10" t="s">
         <v>39</v>
       </c>
@@ -2354,7 +2593,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="10" t="s">
         <v>43</v>
       </c>
@@ -2392,7 +2631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="10" t="s">
         <v>46</v>
       </c>
@@ -2430,7 +2669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="10" t="s">
         <v>50</v>
       </c>
@@ -2468,2062 +2707,2062 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" ht="29.7">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1">
       <c r="A94" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1">
       <c r="A95" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1">
       <c r="A96" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1">
       <c r="A97" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1">
       <c r="A98" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1">
       <c r="A99" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1">
       <c r="A100" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1">
       <c r="A101" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1">
       <c r="A102" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1">
       <c r="A103" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1">
       <c r="A104" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1">
       <c r="A105" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1">
       <c r="A109" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1">
       <c r="A110" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1">
       <c r="A111" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1">
       <c r="A112" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1">
       <c r="A113" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1">
       <c r="A114" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1">
       <c r="A120" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1">
       <c r="A121" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1">
       <c r="A122" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1">
       <c r="A124" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1">
       <c r="A126" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1">
       <c r="A128" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1">
       <c r="A129" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1">
       <c r="A130" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1">
       <c r="A131" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1">
       <c r="A132" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1">
       <c r="A133" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1">
       <c r="A134" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1">
       <c r="A135" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1">
       <c r="A136" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1">
       <c r="A137" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1">
       <c r="A138" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1">
       <c r="A139" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1">
       <c r="A140" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1">
       <c r="A141" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1">
       <c r="A142" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1">
       <c r="A143" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1">
       <c r="A144" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1">
       <c r="A145" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1">
       <c r="A146" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1">
       <c r="A147" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1">
       <c r="A148" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1">
       <c r="A149" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1">
       <c r="A150" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1">
       <c r="A152" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1">
       <c r="A154" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1">
       <c r="A155" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1">
       <c r="A156" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1">
       <c r="A157" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1">
       <c r="A158" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1">
       <c r="A159" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1">
       <c r="A160" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1">
       <c r="A161" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1">
       <c r="A162" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1">
       <c r="A163" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1">
       <c r="A164" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1">
       <c r="A165" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1">
       <c r="A166" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1">
       <c r="A167" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1">
       <c r="A168" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1">
       <c r="A169" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1">
       <c r="A170" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1">
       <c r="A171" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1">
       <c r="A172" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1">
       <c r="A173" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1">
       <c r="A174" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1">
       <c r="A175" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1">
       <c r="A176" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1">
       <c r="A177" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1">
       <c r="A178" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1">
       <c r="A179" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1">
       <c r="A180" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1">
       <c r="A184" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1">
       <c r="A185" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1">
       <c r="A186" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1">
       <c r="A187" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1">
       <c r="A188" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1">
       <c r="A189" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1">
       <c r="A190" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1">
       <c r="A191" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1">
       <c r="A195" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1">
       <c r="A196" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1">
       <c r="A197" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1">
       <c r="A199" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1">
       <c r="A200" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1">
       <c r="A201" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1">
       <c r="A202" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1">
       <c r="A203" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1">
       <c r="A204" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1">
       <c r="A205" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1">
       <c r="A206" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1">
       <c r="A207" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1">
       <c r="A208" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1">
       <c r="A209" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1">
       <c r="A210" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1">
       <c r="A211" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1">
       <c r="A212" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1">
       <c r="A213" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1">
       <c r="A214" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1">
       <c r="A215" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1">
       <c r="A216" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1">
       <c r="A217" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1">
       <c r="A218" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1">
       <c r="A219" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1">
       <c r="A220" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1">
       <c r="A221" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1">
       <c r="A222" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1">
       <c r="A223" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1">
       <c r="A224" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1">
       <c r="A225" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1">
       <c r="A226" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1">
       <c r="A228" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1">
       <c r="A230" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1">
       <c r="A231" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1">
       <c r="A232" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1">
       <c r="A233" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1">
       <c r="A234" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1">
       <c r="A235" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1">
       <c r="A236" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1">
       <c r="A237" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1">
       <c r="A238" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1">
       <c r="A239" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1">
       <c r="A240" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1">
       <c r="A241" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1">
       <c r="A242" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1">
       <c r="A243" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1">
       <c r="A244" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1">
       <c r="A245" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1">
       <c r="A246" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1">
       <c r="A247" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1">
       <c r="A248" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1">
       <c r="A249" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1">
       <c r="A250" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1">
       <c r="A251" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1">
       <c r="A252" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1">
       <c r="A253" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1">
       <c r="A254" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1">
       <c r="A255" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1">
       <c r="A256" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1">
       <c r="A257" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1">
       <c r="A259" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1">
       <c r="A260" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1">
       <c r="A261" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1">
       <c r="A262" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1">
       <c r="A263" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1">
       <c r="A264" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1">
       <c r="A265" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1">
       <c r="A266" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1">
       <c r="A268" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1">
       <c r="A270" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1">
       <c r="A271" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1">
       <c r="A272" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1">
       <c r="A274" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1">
       <c r="A275" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1">
       <c r="A276" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1">
       <c r="A277" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1">
       <c r="A278" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1">
       <c r="A279" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1">
       <c r="A280" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1">
       <c r="A281" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1">
       <c r="A282" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1">
       <c r="A283" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1">
       <c r="A284" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1">
       <c r="A285" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1">
       <c r="A286" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1">
       <c r="A287" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1">
       <c r="A288" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1">
       <c r="A289" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1">
       <c r="A290" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1">
       <c r="A291" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1">
       <c r="A292" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1">
       <c r="A293" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1">
       <c r="A294" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1">
       <c r="A295" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1">
       <c r="A296" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1">
       <c r="A297" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1">
       <c r="A298" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1">
       <c r="A299" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1">
       <c r="A300" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1">
       <c r="A301" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1">
       <c r="A302" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1">
       <c r="A303" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1">
       <c r="A304" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="305" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1">
       <c r="A305" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="306" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1">
       <c r="A306" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="308" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1">
       <c r="A308" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="310" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1">
       <c r="A310" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="311" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1">
       <c r="A311" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="312" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1">
       <c r="A312" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="313" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1">
       <c r="A313" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="314" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1">
       <c r="A314" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="315" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1">
       <c r="A315" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="316" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1">
       <c r="A316" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="317" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1">
       <c r="A317" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1">
       <c r="A318" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1">
       <c r="A319" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1">
       <c r="A320" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1">
       <c r="A321" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1">
       <c r="A322" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1">
       <c r="A323" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1">
       <c r="A324" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1">
       <c r="A325" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1">
       <c r="A326" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1">
       <c r="A327" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1">
       <c r="A328" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1">
       <c r="A329" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1">
       <c r="A330" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1">
       <c r="A331" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1">
       <c r="A332" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1">
       <c r="A333" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="334" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1">
       <c r="A334" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1">
       <c r="A335" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1">
       <c r="A336" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1">
       <c r="A337" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1">
       <c r="A338" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1">
       <c r="A339" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1">
       <c r="A340" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1">
       <c r="A341" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1">
       <c r="A342" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1">
       <c r="A344" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1">
       <c r="A345" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1">
       <c r="A346" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1">
       <c r="A347" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1">
       <c r="A348" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1">
       <c r="A349" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1">
       <c r="A350" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1">
       <c r="A351" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1">
       <c r="A353" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1">
       <c r="A355" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="356" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1">
       <c r="A356" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1">
       <c r="A357" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="359" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1">
       <c r="A359" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="360" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1">
       <c r="A360" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="361" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1">
       <c r="A361" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1">
       <c r="A362" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1">
       <c r="A363" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1">
       <c r="A364" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1">
       <c r="A365" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1">
       <c r="A366" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1">
       <c r="A367" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1">
       <c r="A368" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1">
       <c r="A369" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1">
       <c r="A370" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1">
       <c r="A371" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1">
       <c r="A372" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1">
       <c r="A373" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1">
       <c r="A374" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="375" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1">
       <c r="A375" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1">
       <c r="A376" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="377" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1">
       <c r="A377" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1">
       <c r="A378" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="379" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1">
       <c r="A379" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1">
       <c r="A380" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1">
       <c r="A381" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1">
       <c r="A382" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="383" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1">
       <c r="A383" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1">
       <c r="A384" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1">
       <c r="A385" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1">
       <c r="A386" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="387" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1">
       <c r="A387" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1">
       <c r="A388" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="389" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1">
       <c r="A389" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="390" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1">
       <c r="A390" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="391" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1">
       <c r="A391" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="392" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1">
       <c r="A392" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="393" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1">
       <c r="A393" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1">
       <c r="A394" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="395" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1">
       <c r="A395" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="396" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1">
       <c r="A396" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="397" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1">
       <c r="A397" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="398" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1">
       <c r="A398" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="399" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1">
       <c r="A399" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="400" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1">
       <c r="A400" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="401" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1">
       <c r="A401" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1">
       <c r="A402" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1">
       <c r="A403" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="404" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1">
       <c r="A404" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1">
       <c r="A405" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1">
       <c r="A406" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="407" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1">
       <c r="A407" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1">
       <c r="A408" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1">
       <c r="A409" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1">
       <c r="A410" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1">
       <c r="A411" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="412" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1">
       <c r="A412" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1">
       <c r="A414" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="416" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1">
       <c r="A416" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="417" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1">
       <c r="A417" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1">
       <c r="A418" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="419" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1">
       <c r="A419" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="420" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1">
       <c r="A420" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="421" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1">
       <c r="A421" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="422" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1">
       <c r="A422" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="423" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1">
       <c r="A423" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1">
       <c r="A424" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="425" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1">
       <c r="A425" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="426" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1">
       <c r="A426" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="427" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1">
       <c r="A427" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="428" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1">
       <c r="A428" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="429" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1">
       <c r="A429" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="430" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1">
       <c r="A430" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="431" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1">
       <c r="A431" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="432" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1">
       <c r="A432" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="433" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1">
       <c r="A433" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="434" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1">
       <c r="A434" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="435" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1">
       <c r="A435" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="436" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1">
       <c r="A436" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="437" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1">
       <c r="A437" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="438" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1">
       <c r="A438" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="439" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1">
       <c r="A439" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="440" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1">
       <c r="A440" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="441" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1">
       <c r="A441" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="442" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1">
       <c r="A442" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="443" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1">
       <c r="A443" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="444" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1">
       <c r="A444" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="445" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1">
       <c r="A445" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="446" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1">
       <c r="A446" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="447" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1">
       <c r="A447" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="448" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1">
       <c r="A448" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="449" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1">
       <c r="A449" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="450" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1">
       <c r="A450" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="451" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1">
       <c r="A451" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="452" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1">
       <c r="A452" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="453" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1">
       <c r="A453" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="454" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1">
       <c r="A454" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="455" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1">
       <c r="A455" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="456" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1">
       <c r="A456" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="457" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1">
       <c r="A457" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="458" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1">
       <c r="A458" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="459" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1">
       <c r="A459" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="460" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1">
       <c r="A460" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="461" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1">
       <c r="A461" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="462" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1">
       <c r="A462" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="463" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1">
       <c r="A463" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="464" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1">
       <c r="A464" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="465" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1">
       <c r="A465" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="466" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1">
       <c r="A466" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="467" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1">
       <c r="A467" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="468" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1">
       <c r="A468" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="469" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1">
       <c r="A469" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="471" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1">
       <c r="A471" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="472" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1">
       <c r="A472" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="473" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1">
       <c r="A473" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="474" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1">
       <c r="A474" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="475" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1">
       <c r="A475" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="476" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1">
       <c r="A476" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="477" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1">
       <c r="A477" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="478" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1">
       <c r="A478" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1">
       <c r="A480" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1">
       <c r="A482" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1">
       <c r="A484" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1">
       <c r="A486" s="3" t="s">
         <v>254</v>
       </c>
@@ -4535,4 +4774,383 @@
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4C1CBF-8B82-442F-97DB-362482E1CDF1}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="A1:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.3125" customWidth="1"/>
+    <col min="2" max="2" width="27.5234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.62890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5234375" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="15" customFormat="1">
+      <c r="A2" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1">
+      <c r="B3" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="15" customFormat="1">
+      <c r="B4" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="15" customFormat="1">
+      <c r="B5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="15" customFormat="1">
+      <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1">
+      <c r="B7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="19">
+        <v>46706</v>
+      </c>
+      <c r="D19" s="19">
+        <v>46706</v>
+      </c>
+      <c r="E19" s="23">
+        <v>46706</v>
+      </c>
+      <c r="F19" s="23">
+        <v>46706</v>
+      </c>
+      <c r="G19" s="24">
+        <v>46706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="25">
+        <v>-27050</v>
+      </c>
+      <c r="D20" s="25">
+        <v>-26940</v>
+      </c>
+      <c r="E20" s="26">
+        <v>-26030</v>
+      </c>
+      <c r="F20" s="26">
+        <v>-25690</v>
+      </c>
+      <c r="G20" s="27">
+        <v>-25620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" ht="26.4" customHeight="1"/>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="14"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="14"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="14"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>